--- a/config_4.27/game_enter_btn_config.xlsx
+++ b/config_4.27/game_enter_btn_config.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_4.27\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" tabRatio="820" firstSheet="14" activeTab="17"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" tabRatio="820" firstSheet="20" activeTab="24"/>
   </bookViews>
   <sheets>
     <sheet name="mini_game_hall|小游戏大厅" sheetId="15" r:id="rId1"/>
@@ -36,7 +41,7 @@
     <sheet name="hqjb_config|获取金币" sheetId="36" r:id="rId27"/>
     <sheet name="all_enter|所有按钮入口" sheetId="10" r:id="rId28"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -46,7 +51,7 @@
     <author>admin</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0">
+    <comment ref="C1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -442,9 +447,6 @@
     <t>101;11;93#</t>
   </si>
   <si>
-    <t>132#</t>
-  </si>
-  <si>
     <t>all</t>
   </si>
   <si>
@@ -1311,18 +1313,16 @@
   <si>
     <t>秒杀礼包-cjj</t>
   </si>
+  <si>
+    <t>120#</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="28">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1340,7 +1340,7 @@
       <sz val="11"/>
       <color rgb="FF191F25"/>
       <name val="Segoe UI"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1352,13 +1352,13 @@
       <sz val="11"/>
       <color rgb="FF111F2C"/>
       <name val="Segoe UI"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10.5"/>
       <color rgb="FF171A1D"/>
       <name val="Segoe UI"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -1372,136 +1372,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1520,8 +1391,23 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1530,13 +1416,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1548,7 +1434,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.39994506668294322"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1558,170 +1444,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1759,242 +1483,18 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="51">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2004,10 +1504,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -2076,67 +1576,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="26">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="51">
+  <cellStyles count="4">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 2" xfId="49"/>
-    <cellStyle name="常规 4" xfId="50"/>
+    <cellStyle name="常规 2" xfId="2"/>
+    <cellStyle name="常规 4" xfId="3"/>
+    <cellStyle name="检查单元格" xfId="1" builtinId="23"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2394,19 +1854,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.25" style="17" customWidth="1"/>
     <col min="2" max="2" width="32.5" style="17" customWidth="1"/>
@@ -2416,7 +1876,7 @@
     <col min="6" max="16384" width="9" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" ht="35.25" customHeight="1" spans="1:3">
+    <row r="1" spans="1:3" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2427,7 +1887,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="17">
         <v>1</v>
       </c>
@@ -2438,7 +1898,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="17">
         <v>2</v>
       </c>
@@ -2449,7 +1909,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="17">
         <v>3</v>
       </c>
@@ -2460,7 +1920,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="17">
         <v>4</v>
       </c>
@@ -2471,7 +1931,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="17">
         <v>5</v>
       </c>
@@ -2483,28 +1943,27 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="16.75" customWidth="1"/>
     <col min="3" max="3" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27" spans="1:3">
+    <row r="1" spans="1:3" ht="27" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2515,7 +1974,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="17">
         <v>1</v>
       </c>
@@ -2526,34 +1985,33 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="17"/>
       <c r="B3" s="18"/>
       <c r="C3" s="19"/>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="17"/>
       <c r="B4" s="18"/>
       <c r="C4" s="19"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" ht="40.5" spans="1:3">
+    <row r="1" spans="1:3" ht="40.5" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2564,7 +2022,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="17">
         <v>1</v>
       </c>
@@ -2576,21 +2034,20 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="B3:C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.25" style="17" customWidth="1"/>
     <col min="2" max="2" width="32.5" style="17" customWidth="1"/>
@@ -2600,7 +2057,7 @@
     <col min="6" max="16384" width="9" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" ht="35.25" customHeight="1" spans="1:3">
+    <row r="1" spans="1:3" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2611,7 +2068,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="17">
         <v>1</v>
       </c>
@@ -2622,7 +2079,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="17">
         <v>2</v>
       </c>
@@ -2634,27 +2091,26 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="16.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="40.5" spans="1:3">
+    <row r="1" spans="1:3" ht="40.5" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2665,7 +2121,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="17">
         <v>1</v>
       </c>
@@ -2676,27 +2132,26 @@
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="17"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" ht="40.5" spans="1:3">
+    <row r="1" spans="1:3" ht="40.5" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2707,7 +2162,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="17">
         <v>1</v>
       </c>
@@ -2718,7 +2173,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="17">
         <v>2</v>
       </c>
@@ -2730,21 +2185,20 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.25" style="17" customWidth="1"/>
     <col min="2" max="2" width="32.5" style="17" customWidth="1"/>
@@ -2754,7 +2208,7 @@
     <col min="6" max="16384" width="9" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" ht="35.25" customHeight="1" spans="1:3">
+    <row r="1" spans="1:3" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2765,7 +2219,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="17">
         <v>1</v>
       </c>
@@ -2777,22 +2231,21 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.25" style="17" customWidth="1"/>
     <col min="2" max="2" width="32.5" style="17" customWidth="1"/>
@@ -2802,7 +2255,7 @@
     <col min="6" max="16384" width="9" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" ht="35.25" customHeight="1" spans="1:3">
+    <row r="1" spans="1:3" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2813,7 +2266,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="17">
         <v>1</v>
       </c>
@@ -2825,27 +2278,26 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I30" sqref="I29:I30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="9.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="40.5" spans="1:3">
+    <row r="1" spans="1:3" ht="40.5" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2856,7 +2308,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="17">
         <v>1</v>
       </c>
@@ -2868,28 +2320,27 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="12.375" customWidth="1"/>
     <col min="3" max="3" width="34.75" customWidth="1"/>
     <col min="4" max="4" width="33.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27" spans="1:4">
+    <row r="1" spans="1:6" ht="27" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2903,7 +2354,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="17">
         <v>1</v>
       </c>
@@ -2914,7 +2365,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="17">
         <v>2</v>
       </c>
@@ -2925,7 +2376,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="17">
         <v>3</v>
       </c>
@@ -2937,7 +2388,7 @@
       </c>
       <c r="F4" s="5"/>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="17">
         <v>4</v>
       </c>
@@ -2948,7 +2399,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="17">
         <v>5</v>
       </c>
@@ -2959,7 +2410,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="17">
         <v>6</v>
       </c>
@@ -2970,7 +2421,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="17">
         <v>7</v>
       </c>
@@ -2981,7 +2432,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="22">
         <v>8</v>
       </c>
@@ -2993,28 +2444,27 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="11.25" customWidth="1"/>
     <col min="4" max="4" width="44" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="40.5" spans="1:4">
+    <row r="1" spans="1:4" ht="40.5" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3028,7 +2478,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="17">
         <v>1</v>
       </c>
@@ -3039,7 +2489,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3049,7 +2499,7 @@
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3060,7 +2510,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3071,7 +2521,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3082,7 +2532,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3093,7 +2543,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3104,34 +2554,33 @@
         <v>85</v>
       </c>
     </row>
-    <row r="9" spans="2:3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
     </row>
-    <row r="10" s="2" customFormat="1" ht="16.5" spans="2:3">
+    <row r="10" spans="1:4" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B10" s="21"/>
       <c r="C10" s="12"/>
     </row>
-    <row r="11" spans="3:3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C11" s="5"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:J19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.25" style="17" customWidth="1"/>
     <col min="2" max="2" width="32.5" style="17" customWidth="1"/>
@@ -3141,7 +2590,7 @@
     <col min="6" max="16384" width="9" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" ht="35.25" customHeight="1" spans="1:3">
+    <row r="1" spans="1:3" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3152,7 +2601,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="17">
         <v>1</v>
       </c>
@@ -3163,7 +2612,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="17">
         <v>2</v>
       </c>
@@ -3174,7 +2623,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="17">
         <v>3</v>
       </c>
@@ -3185,7 +2634,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="17">
         <v>4</v>
       </c>
@@ -3194,7 +2643,7 @@
       </c>
       <c r="C5" s="19"/>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="17">
         <v>5</v>
       </c>
@@ -3205,30 +2654,27 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" ht="15"/>
-    <row r="18" ht="15.75" spans="10:10">
+    <row r="18" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J18" s="27"/>
     </row>
-    <row r="19" ht="15"/>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="U40" sqref="U40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" ht="40.5" spans="1:3">
+    <row r="1" spans="1:3" ht="40.5" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3239,7 +2685,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="17">
         <v>1</v>
       </c>
@@ -3251,23 +2697,22 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" ht="40.5" spans="1:3">
+    <row r="1" spans="1:3" ht="40.5" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3278,7 +2723,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="17">
         <v>1</v>
       </c>
@@ -3290,23 +2735,22 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" ht="40.5" spans="1:3">
+    <row r="1" spans="1:3" ht="40.5" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3317,7 +2761,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="17">
         <v>1</v>
       </c>
@@ -3329,24 +2773,23 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J20" sqref="J20:K20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" ht="40.5" spans="1:3">
+    <row r="1" spans="1:3" ht="40.5" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3357,7 +2800,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="17">
         <v>1</v>
       </c>
@@ -3369,26 +2812,25 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="40.5" spans="1:3">
+    <row r="1" spans="1:3" ht="40.5" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3399,7 +2841,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="17">
         <v>1</v>
       </c>
@@ -3410,7 +2852,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="17">
         <v>2</v>
       </c>
@@ -3421,7 +2863,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="20">
         <v>3</v>
       </c>
@@ -3433,23 +2875,22 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M34" sqref="M33:N34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" ht="40.5" spans="1:3">
+    <row r="1" spans="1:3" ht="40.5" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3460,38 +2901,37 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>87</v>
+      <c r="C2" s="28" t="s">
+        <v>367</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="21.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="40.5" spans="1:3">
+    <row r="1" spans="1:3" ht="40.5" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3502,41 +2942,40 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="4" spans="3:3">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C4" s="5"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="21.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="40.5" spans="1:3">
+    <row r="1" spans="1:3" ht="40.5" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3547,40 +2986,38 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="4" spans="3:3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C4" s="5"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F140"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B116" activePane="bottomRight" state="frozen"/>
-      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F143" sqref="F143"/>
+      <selection pane="bottomRight" activeCell="A133" sqref="A133:F133"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.375" customWidth="1"/>
     <col min="2" max="2" width="40.25" customWidth="1"/>
@@ -3591,32 +3028,32 @@
     <col min="7" max="7" width="32.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="34.5" customHeight="1" spans="1:6">
+    <row r="1" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>93</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>94</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>37</v>
       </c>
       <c r="F1" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>95</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>96</v>
       </c>
       <c r="C2" s="5">
         <v>0</v>
@@ -3626,15 +3063,15 @@
         <v>1</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C3" s="5">
         <v>1</v>
@@ -3644,35 +3081,35 @@
         <v>2</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C4" s="5">
+        <v>1</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>100</v>
-      </c>
-      <c r="C4" s="5">
-        <v>1</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>101</v>
       </c>
       <c r="E4" s="5">
         <v>3</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C5" s="5">
         <v>1</v>
@@ -3682,15 +3119,15 @@
         <v>4</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C6" s="5">
         <v>1</v>
@@ -3700,15 +3137,15 @@
         <v>5</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C7" s="5">
         <v>1</v>
@@ -3718,15 +3155,15 @@
         <v>6</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C8" s="5">
         <v>1</v>
@@ -3736,15 +3173,15 @@
         <v>7</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C9" s="5">
         <v>1</v>
@@ -3754,15 +3191,15 @@
         <v>8</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C10" s="5">
         <v>1</v>
@@ -3772,15 +3209,15 @@
         <v>9</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C11" s="5">
         <v>1</v>
@@ -3790,15 +3227,15 @@
         <v>10</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C12" s="5">
         <v>1</v>
@@ -3808,15 +3245,15 @@
         <v>11</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C13" s="5">
         <v>1</v>
@@ -3826,15 +3263,15 @@
         <v>12</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C14" s="5">
         <v>0</v>
@@ -3844,15 +3281,15 @@
         <v>13</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C15" s="5">
         <v>0</v>
@@ -3862,15 +3299,15 @@
         <v>14</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C16" s="5">
         <v>0</v>
@@ -3880,15 +3317,15 @@
         <v>15</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C17" s="5">
         <v>1</v>
@@ -3898,15 +3335,15 @@
         <v>16</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C18" s="5">
         <v>0</v>
@@ -3916,15 +3353,15 @@
         <v>17</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C19" s="5">
         <v>1</v>
@@ -3934,15 +3371,15 @@
         <v>18</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C20" s="5">
         <v>1</v>
@@ -3952,15 +3389,15 @@
         <v>19</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C21" s="5">
         <v>1</v>
@@ -3970,15 +3407,15 @@
         <v>20</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C22" s="5">
         <v>0</v>
@@ -3988,15 +3425,15 @@
         <v>21</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C23" s="5">
         <v>0</v>
@@ -4006,15 +3443,15 @@
         <v>22</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C24" s="5">
         <v>1</v>
@@ -4024,15 +3461,15 @@
         <v>23</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C25" s="5">
         <v>0</v>
@@ -4042,15 +3479,15 @@
         <v>24</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C26" s="5">
         <v>1</v>
@@ -4060,15 +3497,15 @@
         <v>25</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C27" s="5">
         <v>1</v>
@@ -4078,15 +3515,15 @@
         <v>26</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C28" s="5">
         <v>1</v>
@@ -4096,15 +3533,15 @@
         <v>27</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C29" s="5">
         <v>0</v>
@@ -4114,15 +3551,15 @@
         <v>28</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C30" s="5">
         <v>1</v>
@@ -4132,15 +3569,15 @@
         <v>29</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C31" s="5">
         <v>1</v>
@@ -4150,15 +3587,15 @@
         <v>30</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C32" s="5">
         <v>0</v>
@@ -4168,15 +3605,15 @@
         <v>31</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C33" s="5">
         <v>0</v>
@@ -4186,15 +3623,15 @@
         <v>32</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C34" s="5">
         <v>1</v>
@@ -4204,15 +3641,15 @@
         <v>33</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C35" s="5">
         <v>1</v>
@@ -4222,15 +3659,15 @@
         <v>34</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C36" s="5">
         <v>1</v>
@@ -4240,15 +3677,15 @@
         <v>35</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C37" s="5">
         <v>1</v>
@@ -4258,15 +3695,15 @@
         <v>36</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C38" s="5">
         <v>1</v>
@@ -4276,15 +3713,15 @@
         <v>37</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C39" s="5">
         <v>1</v>
@@ -4294,15 +3731,15 @@
         <v>38</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C40" s="5">
         <v>1</v>
@@ -4312,15 +3749,15 @@
         <v>39</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C41" s="5">
         <v>1</v>
@@ -4330,15 +3767,15 @@
         <v>40</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C42">
         <v>1</v>
@@ -4347,15 +3784,15 @@
         <v>41</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C43">
         <v>1</v>
@@ -4364,15 +3801,15 @@
         <v>42</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C44">
         <v>1</v>
@@ -4381,15 +3818,15 @@
         <v>43</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C45">
         <v>1</v>
@@ -4398,15 +3835,15 @@
         <v>44</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C46">
         <v>1</v>
@@ -4415,15 +3852,15 @@
         <v>45</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C47">
         <v>1</v>
@@ -4432,15 +3869,15 @@
         <v>46</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C48">
         <v>1</v>
@@ -4449,15 +3886,15 @@
         <v>47</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C49">
         <v>1</v>
@@ -4466,15 +3903,15 @@
         <v>48</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C50">
         <v>0</v>
@@ -4483,15 +3920,15 @@
         <v>49</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C51">
         <v>1</v>
@@ -4500,15 +3937,15 @@
         <v>50</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C52">
         <v>1</v>
@@ -4517,15 +3954,15 @@
         <v>51</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C53">
         <v>1</v>
@@ -4534,15 +3971,15 @@
         <v>52</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C54" s="5">
         <v>1</v>
@@ -4552,15 +3989,15 @@
         <v>53</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C55">
         <v>1</v>
@@ -4569,15 +4006,15 @@
         <v>54</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C56">
         <v>1</v>
@@ -4586,15 +4023,15 @@
         <v>55</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C57">
         <v>1</v>
@@ -4603,15 +4040,15 @@
         <v>56</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C58">
         <v>1</v>
@@ -4620,15 +4057,15 @@
         <v>57</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C59">
         <v>1</v>
@@ -4637,15 +4074,15 @@
         <v>58</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C60">
         <v>1</v>
@@ -4654,15 +4091,15 @@
         <v>59</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C61">
         <v>1</v>
@@ -4671,15 +4108,15 @@
         <v>60</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C62">
         <v>1</v>
@@ -4688,15 +4125,15 @@
         <v>61</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C63">
         <v>1</v>
@@ -4705,15 +4142,15 @@
         <v>62</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C64">
         <v>1</v>
@@ -4722,15 +4159,15 @@
         <v>63</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C65">
         <v>1</v>
@@ -4739,15 +4176,15 @@
         <v>64</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C66">
         <v>1</v>
@@ -4756,15 +4193,15 @@
         <v>65</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C67">
         <v>1</v>
@@ -4773,15 +4210,15 @@
         <v>66</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C68">
         <v>1</v>
@@ -4790,15 +4227,15 @@
         <v>67</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C69">
         <v>1</v>
@@ -4807,15 +4244,15 @@
         <v>68</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C70">
         <v>0</v>
@@ -4824,15 +4261,15 @@
         <v>69</v>
       </c>
       <c r="F70" s="5" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C71">
         <v>1</v>
@@ -4841,15 +4278,15 @@
         <v>70</v>
       </c>
       <c r="F71" s="5" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C72">
         <v>1</v>
@@ -4858,15 +4295,15 @@
         <v>71</v>
       </c>
       <c r="F72" s="5" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>72</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C73">
         <v>1</v>
@@ -4875,15 +4312,15 @@
         <v>72</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>73</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C74">
         <v>1</v>
@@ -4892,15 +4329,15 @@
         <v>73</v>
       </c>
       <c r="F74" s="5" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>74</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C75">
         <v>1</v>
@@ -4909,15 +4346,15 @@
         <v>74</v>
       </c>
       <c r="F75" s="5" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>75</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C76">
         <v>1</v>
@@ -4926,15 +4363,15 @@
         <v>75</v>
       </c>
       <c r="F76" s="5" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>76</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C77">
         <v>1</v>
@@ -4943,15 +4380,15 @@
         <v>76</v>
       </c>
       <c r="F77" s="5" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>77</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C78">
         <v>1</v>
@@ -4960,15 +4397,15 @@
         <v>77</v>
       </c>
       <c r="F78" s="5" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>78</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C79">
         <v>1</v>
@@ -4977,15 +4414,15 @@
         <v>78</v>
       </c>
       <c r="F79" s="5" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>79</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C80">
         <v>1</v>
@@ -4994,15 +4431,15 @@
         <v>79</v>
       </c>
       <c r="F80" s="5" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>80</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C81">
         <v>1</v>
@@ -5011,15 +4448,15 @@
         <v>80</v>
       </c>
       <c r="F81" s="5" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>81</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C82">
         <v>1</v>
@@ -5028,15 +4465,15 @@
         <v>81</v>
       </c>
       <c r="F82" s="5" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>82</v>
       </c>
       <c r="B83" s="9" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C83">
         <v>1</v>
@@ -5045,15 +4482,15 @@
         <v>82</v>
       </c>
       <c r="F83" s="5" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>83</v>
       </c>
       <c r="B84" s="9" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C84">
         <v>0</v>
@@ -5062,15 +4499,15 @@
         <v>83</v>
       </c>
       <c r="F84" s="5" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>84</v>
       </c>
       <c r="B85" s="9" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C85">
         <v>1</v>
@@ -5079,15 +4516,15 @@
         <v>84</v>
       </c>
       <c r="F85" s="5" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>85</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C86">
         <v>1</v>
@@ -5096,15 +4533,15 @@
         <v>85</v>
       </c>
       <c r="F86" s="5" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>86</v>
       </c>
       <c r="B87" s="9" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C87">
         <v>1</v>
@@ -5113,35 +4550,35 @@
         <v>86</v>
       </c>
       <c r="F87" s="5" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>87</v>
       </c>
       <c r="B88" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="C88">
+        <v>1</v>
+      </c>
+      <c r="D88" s="5" t="s">
         <v>267</v>
-      </c>
-      <c r="C88">
-        <v>1</v>
-      </c>
-      <c r="D88" s="5" t="s">
-        <v>268</v>
       </c>
       <c r="E88">
         <v>87</v>
       </c>
       <c r="F88" s="5" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>88</v>
       </c>
       <c r="B89" s="9" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C89">
         <v>1</v>
@@ -5150,15 +4587,15 @@
         <v>88</v>
       </c>
       <c r="F89" s="5" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>89</v>
       </c>
       <c r="B90" s="9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C90">
         <v>1</v>
@@ -5167,15 +4604,15 @@
         <v>89</v>
       </c>
       <c r="F90" s="5" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>90</v>
       </c>
       <c r="B91" s="9" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C91">
         <v>1</v>
@@ -5184,15 +4621,15 @@
         <v>90</v>
       </c>
       <c r="F91" s="5" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>91</v>
       </c>
       <c r="B92" s="9" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C92">
         <v>1</v>
@@ -5201,15 +4638,15 @@
         <v>91</v>
       </c>
       <c r="F92" s="5" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>92</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C93">
         <v>1</v>
@@ -5218,15 +4655,15 @@
         <v>92</v>
       </c>
       <c r="F93" s="5" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>93</v>
       </c>
       <c r="B94" s="9" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C94">
         <v>1</v>
@@ -5235,15 +4672,15 @@
         <v>93</v>
       </c>
       <c r="F94" s="5" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>94</v>
       </c>
       <c r="B95" s="9" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C95">
         <v>1</v>
@@ -5252,15 +4689,15 @@
         <v>94</v>
       </c>
       <c r="F95" s="5" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>95</v>
       </c>
       <c r="B96" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C96">
         <v>1</v>
@@ -5269,15 +4706,15 @@
         <v>95</v>
       </c>
       <c r="F96" s="5" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>96</v>
       </c>
       <c r="B97" s="9" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C97">
         <v>1</v>
@@ -5286,15 +4723,15 @@
         <v>96</v>
       </c>
       <c r="F97" s="5" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>97</v>
       </c>
       <c r="B98" s="9" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C98">
         <v>1</v>
@@ -5304,15 +4741,15 @@
         <v>97</v>
       </c>
       <c r="F98" s="5" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>98</v>
       </c>
       <c r="B99" s="9" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C99">
         <v>1</v>
@@ -5321,15 +4758,15 @@
         <v>98</v>
       </c>
       <c r="F99" s="5" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>99</v>
       </c>
       <c r="B100" s="9" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C100">
         <v>1</v>
@@ -5338,15 +4775,15 @@
         <v>99</v>
       </c>
       <c r="F100" s="5" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>100</v>
       </c>
       <c r="B101" s="9" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C101">
         <v>1</v>
@@ -5355,35 +4792,35 @@
         <v>100</v>
       </c>
       <c r="F101" s="5" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>101</v>
       </c>
       <c r="B102" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="C102">
+        <v>1</v>
+      </c>
+      <c r="D102" s="6" t="s">
         <v>295</v>
-      </c>
-      <c r="C102">
-        <v>1</v>
-      </c>
-      <c r="D102" s="6" t="s">
-        <v>296</v>
       </c>
       <c r="E102">
         <v>101</v>
       </c>
       <c r="F102" s="5" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="103" s="1" customFormat="1" spans="1:6">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>102</v>
       </c>
       <c r="B103" s="10" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C103" s="1">
         <v>1</v>
@@ -5392,15 +4829,15 @@
         <v>102</v>
       </c>
       <c r="F103" s="11" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>103</v>
       </c>
       <c r="B104" s="9" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C104">
         <v>1</v>
@@ -5409,15 +4846,15 @@
         <v>103</v>
       </c>
       <c r="F104" s="5" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="105" s="2" customFormat="1" spans="1:6">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A105" s="2">
         <v>104</v>
       </c>
       <c r="B105" s="12" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C105" s="2">
         <v>1</v>
@@ -5426,35 +4863,35 @@
         <v>104</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>105</v>
       </c>
       <c r="B106" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="C106">
+        <v>1</v>
+      </c>
+      <c r="D106" s="5" t="s">
         <v>304</v>
-      </c>
-      <c r="C106">
-        <v>1</v>
-      </c>
-      <c r="D106" s="5" t="s">
-        <v>305</v>
       </c>
       <c r="E106">
         <v>105</v>
       </c>
       <c r="F106" s="5" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>106</v>
       </c>
       <c r="B107" s="9" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C107">
         <v>1</v>
@@ -5463,15 +4900,15 @@
         <v>106</v>
       </c>
       <c r="F107" s="5" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>107</v>
       </c>
       <c r="B108" s="9" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C108">
         <v>1</v>
@@ -5480,15 +4917,15 @@
         <v>107</v>
       </c>
       <c r="F108" s="5" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="109" ht="16.5" spans="1:6">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>108</v>
       </c>
       <c r="B109" s="13" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C109">
         <v>1</v>
@@ -5497,15 +4934,15 @@
         <v>108</v>
       </c>
       <c r="F109" s="5" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>109</v>
       </c>
       <c r="B110" s="9" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C110">
         <v>1</v>
@@ -5514,15 +4951,15 @@
         <v>109</v>
       </c>
       <c r="F110" s="5" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>110</v>
       </c>
       <c r="B111" s="9" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C111">
         <v>1</v>
@@ -5531,15 +4968,15 @@
         <v>110</v>
       </c>
       <c r="F111" s="5" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>111</v>
       </c>
       <c r="B112" s="9" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C112">
         <v>1</v>
@@ -5548,15 +4985,15 @@
         <v>111</v>
       </c>
       <c r="F112" s="14" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>112</v>
       </c>
       <c r="B113" s="9" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C113">
         <v>1</v>
@@ -5565,15 +5002,15 @@
         <v>112</v>
       </c>
       <c r="F113" s="14" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>113</v>
       </c>
       <c r="B114" s="9" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C114">
         <v>1</v>
@@ -5582,15 +5019,15 @@
         <v>113</v>
       </c>
       <c r="F114" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>114</v>
       </c>
       <c r="B115" s="9" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C115">
         <v>1</v>
@@ -5599,55 +5036,55 @@
         <v>114</v>
       </c>
       <c r="F115" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>115</v>
       </c>
       <c r="B116" s="9" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C116">
         <v>1</v>
       </c>
       <c r="D116" s="5" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E116">
         <v>115</v>
       </c>
       <c r="F116" s="5" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>116</v>
       </c>
       <c r="B117" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="C117">
+        <v>1</v>
+      </c>
+      <c r="D117" s="5" t="s">
         <v>327</v>
-      </c>
-      <c r="C117">
-        <v>1</v>
-      </c>
-      <c r="D117" s="5" t="s">
-        <v>328</v>
       </c>
       <c r="E117">
         <v>116</v>
       </c>
       <c r="F117" s="5" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="118" ht="16.5" spans="1:6">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>117</v>
       </c>
       <c r="B118" s="15" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C118">
         <v>1</v>
@@ -5656,15 +5093,15 @@
         <v>117</v>
       </c>
       <c r="F118" s="5" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>118</v>
       </c>
       <c r="B119" s="9" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C119">
         <v>1</v>
@@ -5673,15 +5110,15 @@
         <v>118</v>
       </c>
       <c r="F119" s="5" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>119</v>
       </c>
       <c r="B120" s="9" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C120">
         <v>1</v>
@@ -5690,15 +5127,15 @@
         <v>119</v>
       </c>
       <c r="F120" s="5" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>120</v>
       </c>
       <c r="B121" s="9" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C121">
         <v>1</v>
@@ -5707,15 +5144,15 @@
         <v>120</v>
       </c>
       <c r="F121" s="5" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>121</v>
       </c>
       <c r="B122" s="9" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C122">
         <v>1</v>
@@ -5724,15 +5161,15 @@
         <v>121</v>
       </c>
       <c r="F122" s="5" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>122</v>
       </c>
       <c r="B123" s="9" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C123">
         <v>1</v>
@@ -5741,15 +5178,15 @@
         <v>122</v>
       </c>
       <c r="F123" s="5" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>123</v>
       </c>
       <c r="B124" s="9" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C124">
         <v>1</v>
@@ -5758,15 +5195,15 @@
         <v>123</v>
       </c>
       <c r="F124" s="5" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>124</v>
       </c>
       <c r="B125" s="9" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C125">
         <v>1</v>
@@ -5775,15 +5212,15 @@
         <v>124</v>
       </c>
       <c r="F125" s="5" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>125</v>
       </c>
       <c r="B126" s="9" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C126">
         <v>1</v>
@@ -5792,15 +5229,15 @@
         <v>125</v>
       </c>
       <c r="F126" s="5" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>126</v>
       </c>
       <c r="B127" s="9" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C127">
         <v>1</v>
@@ -5809,15 +5246,15 @@
         <v>126</v>
       </c>
       <c r="F127" s="5" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>127</v>
       </c>
       <c r="B128" s="9" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C128">
         <v>1</v>
@@ -5826,95 +5263,95 @@
         <v>127</v>
       </c>
       <c r="F128" s="5" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>128</v>
       </c>
       <c r="B129" s="9" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C129">
         <v>1</v>
       </c>
       <c r="D129" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E129">
         <v>128</v>
       </c>
       <c r="F129" s="5" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>129</v>
       </c>
       <c r="B130" s="9" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C130">
         <v>1</v>
       </c>
       <c r="D130" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E130">
         <v>129</v>
       </c>
       <c r="F130" s="5" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>130</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C131" s="5">
         <v>1</v>
       </c>
       <c r="D131" s="6" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E131" s="5">
         <v>130</v>
       </c>
       <c r="F131" s="5" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>131</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C132" s="5">
         <v>1</v>
       </c>
       <c r="D132" s="5" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E132" s="5">
         <v>131</v>
       </c>
       <c r="F132" s="5" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>132</v>
       </c>
       <c r="B133" s="9" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C133" s="5">
         <v>1</v>
@@ -5923,15 +5360,15 @@
         <v>132</v>
       </c>
       <c r="F133" s="5" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>133</v>
       </c>
       <c r="B134" s="9" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C134" s="5">
         <v>1</v>
@@ -5940,115 +5377,115 @@
         <v>133</v>
       </c>
       <c r="F134" s="5" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="135" ht="16.5" spans="1:6">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>134</v>
       </c>
       <c r="B135" s="13" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C135">
         <v>1</v>
       </c>
       <c r="D135" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E135">
         <v>134</v>
       </c>
       <c r="F135" s="5" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>135</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C136">
         <v>1</v>
       </c>
       <c r="D136" s="5" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E136">
         <v>135</v>
       </c>
       <c r="F136" s="5" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>136</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C137">
         <v>1</v>
       </c>
       <c r="D137" s="5" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E137">
         <v>136</v>
       </c>
       <c r="F137" s="5" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="138" ht="15.75" spans="1:6">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>137</v>
       </c>
       <c r="B138" s="16" t="s">
+        <v>363</v>
+      </c>
+      <c r="C138">
+        <v>1</v>
+      </c>
+      <c r="D138" t="s">
         <v>364</v>
-      </c>
-      <c r="C138">
-        <v>1</v>
-      </c>
-      <c r="D138" t="s">
-        <v>365</v>
       </c>
       <c r="E138">
         <v>137</v>
       </c>
       <c r="F138" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="139" customFormat="1" ht="15.75" spans="1:6">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>138</v>
       </c>
       <c r="B139" s="16" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C139">
         <v>1</v>
       </c>
       <c r="D139" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E139">
         <v>138</v>
       </c>
       <c r="F139" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>139</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C140">
         <v>1</v>
@@ -6058,32 +5495,31 @@
         <v>139</v>
       </c>
       <c r="F140" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="11.25" customWidth="1"/>
     <col min="3" max="3" width="14.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27" spans="1:3">
+    <row r="1" spans="1:3" ht="27" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -6094,7 +5530,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="17">
         <v>1</v>
       </c>
@@ -6105,7 +5541,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="17">
         <v>2</v>
       </c>
@@ -6116,7 +5552,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="17">
         <v>3</v>
       </c>
@@ -6125,7 +5561,7 @@
       </c>
       <c r="C4" s="19"/>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="17">
         <v>4</v>
       </c>
@@ -6134,7 +5570,7 @@
       </c>
       <c r="C5" s="19"/>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="22">
         <v>5</v>
       </c>
@@ -6146,21 +5582,20 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.25" style="17" customWidth="1"/>
     <col min="2" max="2" width="32.5" style="17" customWidth="1"/>
@@ -6170,7 +5605,7 @@
     <col min="6" max="16384" width="9" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" ht="35.25" customHeight="1" spans="1:3">
+    <row r="1" spans="1:3" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -6181,7 +5616,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="17">
         <v>1</v>
       </c>
@@ -6192,7 +5627,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="17">
         <v>2</v>
       </c>
@@ -6203,7 +5638,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="17">
         <v>3</v>
       </c>
@@ -6214,7 +5649,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="17">
         <v>4</v>
       </c>
@@ -6223,7 +5658,7 @@
       </c>
       <c r="C5" s="25"/>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="17">
         <v>5</v>
       </c>
@@ -6235,29 +5670,28 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.5" customWidth="1"/>
     <col min="2" max="2" width="17.125" customWidth="1"/>
     <col min="3" max="3" width="18.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="23" customFormat="1" ht="35.25" customHeight="1" spans="1:3">
+    <row r="1" spans="1:3" s="23" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -6268,7 +5702,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -6280,21 +5714,20 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.25" style="17" customWidth="1"/>
     <col min="2" max="2" width="32.5" style="17" customWidth="1"/>
@@ -6304,7 +5737,7 @@
     <col min="6" max="16384" width="9" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" ht="35.25" customHeight="1" spans="1:3">
+    <row r="1" spans="1:4" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -6315,7 +5748,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="17">
         <v>1</v>
       </c>
@@ -6326,7 +5759,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -6339,22 +5772,21 @@
       <c r="D3"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.25" style="17" customWidth="1"/>
     <col min="2" max="2" width="32.5" style="17" customWidth="1"/>
@@ -6364,7 +5796,7 @@
     <col min="6" max="16384" width="9" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" ht="35.25" customHeight="1" spans="1:3">
+    <row r="1" spans="1:3" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -6375,7 +5807,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="17">
         <v>1</v>
       </c>
@@ -6386,7 +5818,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="17">
         <v>2</v>
       </c>
@@ -6395,7 +5827,7 @@
       </c>
       <c r="C3" s="19"/>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="17">
         <v>3</v>
       </c>
@@ -6406,7 +5838,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" ht="16.5" spans="1:3">
+    <row r="5" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="17">
         <v>4</v>
       </c>
@@ -6418,22 +5850,21 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J140"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView topLeftCell="A101" workbookViewId="0">
+      <selection activeCell="E120" sqref="E120"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.25" style="17" customWidth="1"/>
     <col min="2" max="2" width="32.5" style="17" customWidth="1"/>
@@ -6443,7 +5874,7 @@
     <col min="6" max="16384" width="9" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" ht="35.25" customHeight="1" spans="1:5">
+    <row r="1" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -6460,7 +5891,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="17">
         <v>1</v>
       </c>
@@ -6479,7 +5910,7 @@
         <v>快乐礼包</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="17">
         <v>2</v>
       </c>
@@ -6502,7 +5933,7 @@
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="17">
         <v>3</v>
       </c>
@@ -6521,7 +5952,7 @@
         <v>幸运抽奖</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="17">
         <v>4</v>
       </c>
@@ -6541,7 +5972,7 @@
       </c>
       <c r="G5" s="5"/>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="17">
         <v>5</v>
       </c>
@@ -6560,7 +5991,7 @@
         <v>新人红包</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="17">
         <v>6</v>
       </c>
@@ -6579,7 +6010,7 @@
         <v>大厅千元赛</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="17">
         <v>7</v>
       </c>
@@ -6598,7 +6029,7 @@
         <v>首充礼包</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="17">
         <v>8</v>
       </c>
@@ -6617,7 +6048,7 @@
         <v>鲸鱼福利</v>
       </c>
     </row>
-    <row r="10" spans="2:5">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B10" s="18"/>
       <c r="D10" s="5">
         <f>'all_enter|所有按钮入口'!E10</f>
@@ -6628,7 +6059,7 @@
         <v>限时福利</v>
       </c>
     </row>
-    <row r="11" spans="2:5">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B11" s="18"/>
       <c r="C11" s="19"/>
       <c r="D11" s="5">
@@ -6640,7 +6071,7 @@
         <v>月卡</v>
       </c>
     </row>
-    <row r="12" spans="4:5">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D12" s="5">
         <f>'all_enter|所有按钮入口'!E12</f>
         <v>11</v>
@@ -6650,7 +6081,7 @@
         <v>节日扩展活动</v>
       </c>
     </row>
-    <row r="13" spans="4:5">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D13" s="5">
         <f>'all_enter|所有按钮入口'!E13</f>
         <v>12</v>
@@ -6660,7 +6091,7 @@
         <v>幸运降临</v>
       </c>
     </row>
-    <row r="14" spans="4:5">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D14" s="5">
         <f>'all_enter|所有按钮入口'!E14</f>
         <v>13</v>
@@ -6670,7 +6101,7 @@
         <v>消消乐水果排行榜</v>
       </c>
     </row>
-    <row r="15" spans="4:5">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D15" s="5">
         <f>'all_enter|所有按钮入口'!E15</f>
         <v>14</v>
@@ -6680,7 +6111,7 @@
         <v>水浒消消乐每日任务</v>
       </c>
     </row>
-    <row r="16" spans="4:5">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D16" s="5">
         <f>'all_enter|所有按钮入口'!E16</f>
         <v>15</v>
@@ -6690,7 +6121,7 @@
         <v>水果消消乐每日任务</v>
       </c>
     </row>
-    <row r="17" spans="4:5">
+    <row r="17" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D17" s="5">
         <f>'all_enter|所有按钮入口'!E17</f>
         <v>16</v>
@@ -6700,7 +6131,7 @@
         <v>新人专属</v>
       </c>
     </row>
-    <row r="18" spans="4:5">
+    <row r="18" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D18" s="5">
         <f>'all_enter|所有按钮入口'!E18</f>
         <v>17</v>
@@ -6710,7 +6141,7 @@
         <v>捕鱼达人榜</v>
       </c>
     </row>
-    <row r="19" spans="4:5">
+    <row r="19" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D19" s="5">
         <f>'all_enter|所有按钮入口'!E19</f>
         <v>18</v>
@@ -6720,7 +6151,7 @@
         <v>千元赛提示</v>
       </c>
     </row>
-    <row r="20" spans="4:5">
+    <row r="20" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D20" s="5">
         <f>'all_enter|所有按钮入口'!E20</f>
         <v>19</v>
@@ -6730,7 +6161,7 @@
         <v>捕鱼比赛提示</v>
       </c>
     </row>
-    <row r="21" spans="4:5">
+    <row r="21" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D21" s="5">
         <f>'all_enter|所有按钮入口'!E21</f>
         <v>20</v>
@@ -6740,7 +6171,7 @@
         <v>捕鱼门票</v>
       </c>
     </row>
-    <row r="22" spans="4:5">
+    <row r="22" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D22" s="5">
         <f>'all_enter|所有按钮入口'!E22</f>
         <v>21</v>
@@ -6750,7 +6181,7 @@
         <v>感恩有礼</v>
       </c>
     </row>
-    <row r="23" spans="4:5">
+    <row r="23" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D23" s="5">
         <f>'all_enter|所有按钮入口'!E23</f>
         <v>22</v>
@@ -6760,7 +6191,7 @@
         <v>雪球大作战</v>
       </c>
     </row>
-    <row r="24" spans="4:5">
+    <row r="24" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D24" s="5">
         <f>'all_enter|所有按钮入口'!E24</f>
         <v>23</v>
@@ -6770,7 +6201,7 @@
         <v>推广礼包</v>
       </c>
     </row>
-    <row r="25" spans="4:5">
+    <row r="25" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D25" s="5">
         <f>'all_enter|所有按钮入口'!E25</f>
         <v>24</v>
@@ -6780,7 +6211,7 @@
         <v>疯狂双12</v>
       </c>
     </row>
-    <row r="26" spans="4:5">
+    <row r="26" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D26" s="5">
         <f>'all_enter|所有按钮入口'!E26</f>
         <v>25</v>
@@ -6790,7 +6221,7 @@
         <v>财神模式</v>
       </c>
     </row>
-    <row r="27" spans="4:5">
+    <row r="27" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D27" s="5">
         <f>'all_enter|所有按钮入口'!E27</f>
         <v>26</v>
@@ -6800,7 +6231,7 @@
         <v>新版新人红包</v>
       </c>
     </row>
-    <row r="28" spans="4:5">
+    <row r="28" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D28" s="5">
         <f>'all_enter|所有按钮入口'!E28</f>
         <v>27</v>
@@ -6810,7 +6241,7 @@
         <v>新版1元礼包</v>
       </c>
     </row>
-    <row r="29" spans="4:5">
+    <row r="29" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D29" s="5">
         <f>'all_enter|所有按钮入口'!E29</f>
         <v>28</v>
@@ -6820,7 +6251,7 @@
         <v>圣诞敲敲乐</v>
       </c>
     </row>
-    <row r="30" spans="4:5">
+    <row r="30" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D30" s="5">
         <f>'all_enter|所有按钮入口'!E30</f>
         <v>29</v>
@@ -6830,7 +6261,7 @@
         <v>全返礼包</v>
       </c>
     </row>
-    <row r="31" spans="4:5">
+    <row r="31" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D31" s="5">
         <f>'all_enter|所有按钮入口'!E31</f>
         <v>30</v>
@@ -6840,7 +6271,7 @@
         <v>每日特惠礼包</v>
       </c>
     </row>
-    <row r="32" spans="4:5">
+    <row r="32" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D32" s="5">
         <f>'all_enter|所有按钮入口'!E32</f>
         <v>31</v>
@@ -6850,7 +6281,7 @@
         <v>欢庆元旦</v>
       </c>
     </row>
-    <row r="33" spans="4:5">
+    <row r="33" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D33" s="5">
         <f>'all_enter|所有按钮入口'!E33</f>
         <v>32</v>
@@ -6860,7 +6291,7 @@
         <v>水浒图标</v>
       </c>
     </row>
-    <row r="34" spans="4:5">
+    <row r="34" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D34" s="5">
         <f>'all_enter|所有按钮入口'!E34</f>
         <v>33</v>
@@ -6870,7 +6301,7 @@
         <v>随机鲸币</v>
       </c>
     </row>
-    <row r="35" spans="4:5">
+    <row r="35" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D35" s="5">
         <f>'all_enter|所有按钮入口'!E35</f>
         <v>34</v>
@@ -6880,7 +6311,7 @@
         <v>飞-红包</v>
       </c>
     </row>
-    <row r="36" spans="4:5">
+    <row r="36" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D36" s="5">
         <f>'all_enter|所有按钮入口'!E36</f>
         <v>35</v>
@@ -6890,7 +6321,7 @@
         <v>浪漫情人节</v>
       </c>
     </row>
-    <row r="37" spans="4:5">
+    <row r="37" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D37" s="5">
         <f>'all_enter|所有按钮入口'!E37</f>
         <v>36</v>
@@ -6900,7 +6331,7 @@
         <v>新人七天乐</v>
       </c>
     </row>
-    <row r="38" spans="4:5">
+    <row r="38" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D38" s="5">
         <f>'all_enter|所有按钮入口'!E38</f>
         <v>37</v>
@@ -6910,7 +6341,7 @@
         <v>分享拉新</v>
       </c>
     </row>
-    <row r="39" spans="4:5">
+    <row r="39" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D39" s="5">
         <f>'all_enter|所有按钮入口'!E39</f>
         <v>38</v>
@@ -6920,7 +6351,7 @@
         <v>龙腾祈福</v>
       </c>
     </row>
-    <row r="40" spans="4:5">
+    <row r="40" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D40" s="5">
         <f>'all_enter|所有按钮入口'!E40</f>
         <v>39</v>
@@ -6930,7 +6361,7 @@
         <v>房卡场入口</v>
       </c>
     </row>
-    <row r="41" spans="4:5">
+    <row r="41" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D41" s="5">
         <f>'all_enter|所有按钮入口'!E41</f>
         <v>40</v>
@@ -6940,7 +6371,7 @@
         <v>幸运彩贝</v>
       </c>
     </row>
-    <row r="42" spans="4:5">
+    <row r="42" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D42" s="5">
         <f>'all_enter|所有按钮入口'!E42</f>
         <v>41</v>
@@ -6950,7 +6381,7 @@
         <v>植树礼物</v>
       </c>
     </row>
-    <row r="43" spans="4:5">
+    <row r="43" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D43" s="5">
         <f>'all_enter|所有按钮入口'!E43</f>
         <v>42</v>
@@ -6960,7 +6391,7 @@
         <v>季卡</v>
       </c>
     </row>
-    <row r="44" spans="4:5">
+    <row r="44" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D44" s="5">
         <f>'all_enter|所有按钮入口'!E44</f>
         <v>43</v>
@@ -6970,7 +6401,7 @@
         <v>彩金鱼抽奖</v>
       </c>
     </row>
-    <row r="45" spans="4:5">
+    <row r="45" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D45" s="5">
         <f>'all_enter|所有按钮入口'!E45</f>
         <v>44</v>
@@ -6980,7 +6411,7 @@
         <v>0元礼包</v>
       </c>
     </row>
-    <row r="46" spans="4:5">
+    <row r="46" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D46" s="5">
         <f>'all_enter|所有按钮入口'!E46</f>
         <v>45</v>
@@ -6990,7 +6421,7 @@
         <v>红包分享</v>
       </c>
     </row>
-    <row r="47" spans="4:5">
+    <row r="47" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D47" s="5">
         <f>'all_enter|所有按钮入口'!E47</f>
         <v>46</v>
@@ -7000,7 +6431,7 @@
         <v>财神消消乐</v>
       </c>
     </row>
-    <row r="48" spans="4:5">
+    <row r="48" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D48" s="5">
         <f>'all_enter|所有按钮入口'!E48</f>
         <v>47</v>
@@ -7010,7 +6441,7 @@
         <v>随机领红包</v>
       </c>
     </row>
-    <row r="49" spans="4:5">
+    <row r="49" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D49" s="5">
         <f>'all_enter|所有按钮入口'!E49</f>
         <v>48</v>
@@ -7020,7 +6451,7 @@
         <v>回归惊喜</v>
       </c>
     </row>
-    <row r="50" spans="4:5">
+    <row r="50" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D50" s="5">
         <f>'all_enter|所有按钮入口'!E50</f>
         <v>49</v>
@@ -7030,7 +6461,7 @@
         <v>水浒消消乐单笔赢金排行榜</v>
       </c>
     </row>
-    <row r="51" spans="4:5">
+    <row r="51" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D51" s="5">
         <f>'all_enter|所有按钮入口'!E51</f>
         <v>50</v>
@@ -7040,17 +6471,17 @@
         <v>疯狂返利</v>
       </c>
     </row>
-    <row r="52" spans="4:5">
+    <row r="52" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D52" s="5">
         <f>'all_enter|所有按钮入口'!E52</f>
         <v>51</v>
       </c>
       <c r="E52" s="5" t="str">
         <f>'all_enter|所有按钮入口'!F52</f>
-        <v> 抽空调</v>
-      </c>
-    </row>
-    <row r="53" spans="4:5">
+        <v xml:space="preserve"> 抽空调</v>
+      </c>
+    </row>
+    <row r="53" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D53" s="5">
         <f>'all_enter|所有按钮入口'!E53</f>
         <v>52</v>
@@ -7060,7 +6491,7 @@
         <v>2D-彩金鱼抽奖</v>
       </c>
     </row>
-    <row r="54" spans="4:5">
+    <row r="54" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D54" s="5">
         <f>'all_enter|所有按钮入口'!E54</f>
         <v>53</v>
@@ -7070,7 +6501,7 @@
         <v>3D-彩金鱼抽奖</v>
       </c>
     </row>
-    <row r="55" spans="4:5">
+    <row r="55" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D55" s="5">
         <f>'all_enter|所有按钮入口'!E55</f>
         <v>54</v>
@@ -7080,7 +6511,7 @@
         <v>连购返利</v>
       </c>
     </row>
-    <row r="56" spans="4:5">
+    <row r="56" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D56" s="5">
         <f>'all_enter|所有按钮入口'!E56</f>
         <v>55</v>
@@ -7090,7 +6521,7 @@
         <v>免费红包</v>
       </c>
     </row>
-    <row r="57" spans="4:5">
+    <row r="57" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D57" s="5">
         <f>'all_enter|所有按钮入口'!E57</f>
         <v>56</v>
@@ -7100,7 +6531,7 @@
         <v>幸运彩蛋</v>
       </c>
     </row>
-    <row r="58" spans="4:5">
+    <row r="58" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D58" s="5">
         <f>'all_enter|所有按钮入口'!E58</f>
         <v>57</v>
@@ -7110,7 +6541,7 @@
         <v>消消乐红包任务</v>
       </c>
     </row>
-    <row r="59" spans="4:5">
+    <row r="59" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D59" s="5">
         <f>'all_enter|所有按钮入口'!E59</f>
         <v>58</v>
@@ -7120,7 +6551,7 @@
         <v>新首充礼包</v>
       </c>
     </row>
-    <row r="60" spans="4:5">
+    <row r="60" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D60" s="5">
         <f>'all_enter|所有按钮入口'!E60</f>
         <v>59</v>
@@ -7130,7 +6561,7 @@
         <v>母亲节特惠</v>
       </c>
     </row>
-    <row r="61" spans="4:5">
+    <row r="61" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D61" s="5">
         <f>'all_enter|所有按钮入口'!E61</f>
         <v>60</v>
@@ -7140,7 +6571,7 @@
         <v>水果消消乐</v>
       </c>
     </row>
-    <row r="62" spans="4:5">
+    <row r="62" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D62" s="5">
         <f>'all_enter|所有按钮入口'!E62</f>
         <v>61</v>
@@ -7150,7 +6581,7 @@
         <v>存钱罐</v>
       </c>
     </row>
-    <row r="63" spans="4:5">
+    <row r="63" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D63" s="5">
         <f>'all_enter|所有按钮入口'!E63</f>
         <v>62</v>
@@ -7160,7 +6591,7 @@
         <v>问题反馈</v>
       </c>
     </row>
-    <row r="64" spans="4:5">
+    <row r="64" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D64" s="5">
         <f>'all_enter|所有按钮入口'!E64</f>
         <v>63</v>
@@ -7170,7 +6601,7 @@
         <v>3D捕鱼测试排行榜</v>
       </c>
     </row>
-    <row r="65" spans="4:5">
+    <row r="65" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D65" s="5">
         <f>'all_enter|所有按钮入口'!E65</f>
         <v>64</v>
@@ -7180,7 +6611,7 @@
         <v>排名赛</v>
       </c>
     </row>
-    <row r="66" spans="4:5">
+    <row r="66" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D66" s="5">
         <f>'all_enter|所有按钮入口'!E66</f>
         <v>65</v>
@@ -7190,7 +6621,7 @@
         <v>3D捕鱼奖池-大厅显示奖池图标</v>
       </c>
     </row>
-    <row r="67" spans="4:5">
+    <row r="67" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D67" s="5">
         <f>'all_enter|所有按钮入口'!E67</f>
         <v>66</v>
@@ -7200,7 +6631,7 @@
         <v>3D捕鱼奖池-3D捕鱼场次选择位置</v>
       </c>
     </row>
-    <row r="68" spans="4:5">
+    <row r="68" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D68" s="5">
         <f>'all_enter|所有按钮入口'!E68</f>
         <v>67</v>
@@ -7210,7 +6641,7 @@
         <v>3D捕鱼奖池-4号游戏场显示奖池图标</v>
       </c>
     </row>
-    <row r="69" spans="4:5">
+    <row r="69" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D69" s="5">
         <f>'all_enter|所有按钮入口'!E69</f>
         <v>68</v>
@@ -7220,7 +6651,7 @@
         <v>3D捕鱼奖池-5号游戏场显示奖池图标</v>
       </c>
     </row>
-    <row r="70" spans="4:5">
+    <row r="70" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D70" s="5">
         <f>'all_enter|所有按钮入口'!E70</f>
         <v>69</v>
@@ -7230,7 +6661,7 @@
         <v>3D捕鱼奖池-游戏内显示奖池图标</v>
       </c>
     </row>
-    <row r="71" spans="4:5">
+    <row r="71" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D71" s="5">
         <f>'all_enter|所有按钮入口'!E71</f>
         <v>70</v>
@@ -7240,7 +6671,7 @@
         <v>3D捕鱼奖池-显示说明界面</v>
       </c>
     </row>
-    <row r="72" spans="4:5">
+    <row r="72" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D72" s="5">
         <f>'all_enter|所有按钮入口'!E72</f>
         <v>71</v>
@@ -7250,7 +6681,7 @@
         <v>3D捕鱼开炮送红包-场次2大厅显示</v>
       </c>
     </row>
-    <row r="73" spans="4:5">
+    <row r="73" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D73" s="5">
         <f>'all_enter|所有按钮入口'!E73</f>
         <v>72</v>
@@ -7260,7 +6691,7 @@
         <v>兑换按钮</v>
       </c>
     </row>
-    <row r="74" spans="4:5">
+    <row r="74" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D74" s="5">
         <f>'all_enter|所有按钮入口'!E74</f>
         <v>73</v>
@@ -7270,7 +6701,7 @@
         <v>boss来袭</v>
       </c>
     </row>
-    <row r="75" spans="4:5">
+    <row r="75" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D75" s="5">
         <f>'all_enter|所有按钮入口'!E75</f>
         <v>74</v>
@@ -7280,7 +6711,7 @@
         <v>活跃任务</v>
       </c>
     </row>
-    <row r="76" spans="4:5">
+    <row r="76" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D76" s="5">
         <f>'all_enter|所有按钮入口'!E76</f>
         <v>75</v>
@@ -7290,7 +6721,7 @@
         <v>3D捕鱼开炮送红包-场次3大厅显示</v>
       </c>
     </row>
-    <row r="77" spans="4:5">
+    <row r="77" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D77" s="5">
         <f>'all_enter|所有按钮入口'!E77</f>
         <v>76</v>
@@ -7300,7 +6731,7 @@
         <v>3D捕鱼开炮送红包-场次4大厅显示</v>
       </c>
     </row>
-    <row r="78" spans="4:5">
+    <row r="78" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D78" s="5">
         <f>'all_enter|所有按钮入口'!E78</f>
         <v>77</v>
@@ -7310,7 +6741,7 @@
         <v>3D捕鱼开炮送红包-场次5大厅显示</v>
       </c>
     </row>
-    <row r="79" spans="4:5">
+    <row r="79" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D79" s="5">
         <f>'all_enter|所有按钮入口'!E79</f>
         <v>78</v>
@@ -7320,7 +6751,7 @@
         <v>3D捕鱼开炮送红包-游戏内</v>
       </c>
     </row>
-    <row r="80" spans="4:5">
+    <row r="80" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D80" s="5">
         <f>'all_enter|所有按钮入口'!E80</f>
         <v>79</v>
@@ -7330,7 +6761,7 @@
         <v>炮台升级按钮</v>
       </c>
     </row>
-    <row r="81" spans="4:5">
+    <row r="81" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D81" s="5">
         <f>'all_enter|所有按钮入口'!E81</f>
         <v>80</v>
@@ -7340,7 +6771,7 @@
         <v>畅玩卡</v>
       </c>
     </row>
-    <row r="82" spans="4:5">
+    <row r="82" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D82" s="5">
         <f>'all_enter|所有按钮入口'!E82</f>
         <v>81</v>
@@ -7350,7 +6781,7 @@
         <v>3D捕鱼挑战任务</v>
       </c>
     </row>
-    <row r="83" spans="4:5">
+    <row r="83" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D83" s="5">
         <f>'all_enter|所有按钮入口'!E83</f>
         <v>82</v>
@@ -7360,7 +6791,7 @@
         <v>3D捕鱼游戏上方区域</v>
       </c>
     </row>
-    <row r="84" spans="4:5">
+    <row r="84" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D84" s="5">
         <f>'all_enter|所有按钮入口'!E84</f>
         <v>83</v>
@@ -7370,7 +6801,7 @@
         <v>师徒系统</v>
       </c>
     </row>
-    <row r="85" spans="4:5">
+    <row r="85" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D85" s="5">
         <f>'all_enter|所有按钮入口'!E85</f>
         <v>84</v>
@@ -7380,7 +6811,7 @@
         <v>全返礼包</v>
       </c>
     </row>
-    <row r="86" spans="4:5">
+    <row r="86" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D86" s="5">
         <f>'all_enter|所有按钮入口'!E86</f>
         <v>85</v>
@@ -7390,7 +6821,7 @@
         <v>签到</v>
       </c>
     </row>
-    <row r="87" spans="4:5">
+    <row r="87" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D87" s="5">
         <f>'all_enter|所有按钮入口'!E87</f>
         <v>86</v>
@@ -7400,7 +6831,7 @@
         <v>3D捕鱼自动开炮</v>
       </c>
     </row>
-    <row r="88" spans="4:5">
+    <row r="88" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D88" s="5">
         <f>'all_enter|所有按钮入口'!E88</f>
         <v>87</v>
@@ -7410,7 +6841,7 @@
         <v>免费抽奖-广告</v>
       </c>
     </row>
-    <row r="89" spans="4:5">
+    <row r="89" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D89" s="5">
         <f>'all_enter|所有按钮入口'!E89</f>
         <v>88</v>
@@ -7420,7 +6851,7 @@
         <v>超值礼包</v>
       </c>
     </row>
-    <row r="90" spans="4:5">
+    <row r="90" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D90" s="5">
         <f>'all_enter|所有按钮入口'!E90</f>
         <v>89</v>
@@ -7430,7 +6861,7 @@
         <v>新人抽大奖</v>
       </c>
     </row>
-    <row r="91" spans="4:5">
+    <row r="91" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D91" s="5">
         <f>'all_enter|所有按钮入口'!E91</f>
         <v>90</v>
@@ -7440,7 +6871,7 @@
         <v>水果消消乐引导</v>
       </c>
     </row>
-    <row r="92" spans="4:5">
+    <row r="92" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D92" s="5">
         <f>'all_enter|所有按钮入口'!E92</f>
         <v>91</v>
@@ -7450,7 +6881,7 @@
         <v>水果消消乐大引导</v>
       </c>
     </row>
-    <row r="93" spans="4:5">
+    <row r="93" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D93" s="5">
         <f>'all_enter|所有按钮入口'!E93</f>
         <v>92</v>
@@ -7460,7 +6891,7 @@
         <v>推广系统</v>
       </c>
     </row>
-    <row r="94" spans="4:5">
+    <row r="94" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D94" s="5">
         <f>'all_enter|所有按钮入口'!E94</f>
         <v>93</v>
@@ -7470,7 +6901,7 @@
         <v>充值消耗模板</v>
       </c>
     </row>
-    <row r="95" spans="4:5">
+    <row r="95" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D95" s="5">
         <f>'all_enter|所有按钮入口'!E95</f>
         <v>94</v>
@@ -7480,7 +6911,7 @@
         <v>免费福利券</v>
       </c>
     </row>
-    <row r="96" spans="4:5">
+    <row r="96" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D96" s="5">
         <f>'all_enter|所有按钮入口'!E96</f>
         <v>95</v>
@@ -7490,7 +6921,7 @@
         <v>奖池按钮图标</v>
       </c>
     </row>
-    <row r="97" spans="4:5">
+    <row r="97" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D97" s="5">
         <f>'all_enter|所有按钮入口'!E97</f>
         <v>96</v>
@@ -7500,7 +6931,7 @@
         <v>奖池游戏内显示</v>
       </c>
     </row>
-    <row r="98" spans="4:5">
+    <row r="98" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D98" s="5">
         <f>'all_enter|所有按钮入口'!E98</f>
         <v>97</v>
@@ -7510,7 +6941,7 @@
         <v>免费话费</v>
       </c>
     </row>
-    <row r="99" spans="4:5">
+    <row r="99" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D99" s="5">
         <f>'all_enter|所有按钮入口'!E99</f>
         <v>98</v>
@@ -7520,7 +6951,7 @@
         <v>幸运彩蛋</v>
       </c>
     </row>
-    <row r="100" spans="4:5">
+    <row r="100" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D100" s="5">
         <f>'all_enter|所有按钮入口'!E100</f>
         <v>99</v>
@@ -7530,7 +6961,7 @@
         <v>街机捕鱼游戏上方区域</v>
       </c>
     </row>
-    <row r="101" spans="4:5">
+    <row r="101" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D101" s="5">
         <f>'all_enter|所有按钮入口'!E101</f>
         <v>100</v>
@@ -7540,7 +6971,7 @@
         <v>欢乐敲金蛋</v>
       </c>
     </row>
-    <row r="102" spans="4:5">
+    <row r="102" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D102" s="5">
         <f>'all_enter|所有按钮入口'!E102</f>
         <v>101</v>
@@ -7550,7 +6981,7 @@
         <v>小游戏累计赢金抽福卡</v>
       </c>
     </row>
-    <row r="103" spans="4:5">
+    <row r="103" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D103" s="5">
         <f>'all_enter|所有按钮入口'!E103</f>
         <v>102</v>
@@ -7560,7 +6991,7 @@
         <v>畅玩礼包</v>
       </c>
     </row>
-    <row r="104" spans="4:5">
+    <row r="104" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D104" s="5">
         <f>'all_enter|所有按钮入口'!E104</f>
         <v>103</v>
@@ -7570,7 +7001,7 @@
         <v>核弹</v>
       </c>
     </row>
-    <row r="105" spans="4:5">
+    <row r="105" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D105" s="5">
         <f>'all_enter|所有按钮入口'!E105</f>
         <v>104</v>
@@ -7580,7 +7011,7 @@
         <v>大额福利券（跳转小游戏入口）</v>
       </c>
     </row>
-    <row r="106" spans="4:5">
+    <row r="106" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D106" s="5">
         <f>'all_enter|所有按钮入口'!E106</f>
         <v>105</v>
@@ -7590,7 +7021,7 @@
         <v>金鸡送礼（冲金鸡）</v>
       </c>
     </row>
-    <row r="107" spans="4:5">
+    <row r="107" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D107" s="5">
         <f>'all_enter|所有按钮入口'!E107</f>
         <v>106</v>
@@ -7600,7 +7031,7 @@
         <v>万圣幸运礼包</v>
       </c>
     </row>
-    <row r="108" spans="4:5">
+    <row r="108" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D108" s="5">
         <f>'all_enter|所有按钮入口'!E108</f>
         <v>107</v>
@@ -7610,7 +7041,7 @@
         <v>新人专享</v>
       </c>
     </row>
-    <row r="109" spans="4:5">
+    <row r="109" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D109" s="5">
         <f>'all_enter|所有按钮入口'!E109</f>
         <v>108</v>
@@ -7620,7 +7051,7 @@
         <v>排行榜总入口</v>
       </c>
     </row>
-    <row r="110" spans="4:5">
+    <row r="110" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D110" s="5">
         <f>'all_enter|所有按钮入口'!E110</f>
         <v>109</v>
@@ -7630,7 +7061,7 @@
         <v>深海探险</v>
       </c>
     </row>
-    <row r="111" spans="4:5">
+    <row r="111" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D111" s="5">
         <f>'all_enter|所有按钮入口'!E111</f>
         <v>110</v>
@@ -7640,7 +7071,7 @@
         <v>一本万利</v>
       </c>
     </row>
-    <row r="112" spans="4:5">
+    <row r="112" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D112" s="5">
         <f>'all_enter|所有按钮入口'!E112</f>
         <v>111</v>
@@ -7650,7 +7081,7 @@
         <v>UI-精彩活动</v>
       </c>
     </row>
-    <row r="113" spans="4:5">
+    <row r="113" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D113" s="5">
         <f>'all_enter|所有按钮入口'!E113</f>
         <v>112</v>
@@ -7660,7 +7091,7 @@
         <v>UI-获取金币</v>
       </c>
     </row>
-    <row r="114" spans="4:5">
+    <row r="114" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D114" s="5">
         <f>'all_enter|所有按钮入口'!E114</f>
         <v>113</v>
@@ -7670,7 +7101,7 @@
         <v>新人七天乐（旧）</v>
       </c>
     </row>
-    <row r="115" spans="4:5">
+    <row r="115" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D115" s="5">
         <f>'all_enter|所有按钮入口'!E115</f>
         <v>114</v>
@@ -7680,7 +7111,7 @@
         <v>聚划算</v>
       </c>
     </row>
-    <row r="116" spans="4:5">
+    <row r="116" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D116" s="5">
         <f>'all_enter|所有按钮入口'!E116</f>
         <v>115</v>
@@ -7690,7 +7121,7 @@
         <v>免费话费(冲金鸡)</v>
       </c>
     </row>
-    <row r="117" spans="4:5">
+    <row r="117" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D117" s="5">
         <f>'all_enter|所有按钮入口'!E117</f>
         <v>116</v>
@@ -7700,7 +7131,7 @@
         <v>幸运抽奖</v>
       </c>
     </row>
-    <row r="118" spans="4:5">
+    <row r="118" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D118" s="5">
         <f>'all_enter|所有按钮入口'!E118</f>
         <v>117</v>
@@ -7710,7 +7141,7 @@
         <v>元旦福利</v>
       </c>
     </row>
-    <row r="119" spans="4:5">
+    <row r="119" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D119" s="5">
         <f>'all_enter|所有按钮入口'!E119</f>
         <v>118</v>
@@ -7720,7 +7151,7 @@
         <v>充值商城</v>
       </c>
     </row>
-    <row r="120" spans="4:5">
+    <row r="120" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D120" s="5">
         <f>'all_enter|所有按钮入口'!E120</f>
         <v>119</v>
@@ -7730,7 +7161,7 @@
         <v>游戏互导向斗地主</v>
       </c>
     </row>
-    <row r="121" spans="4:5">
+    <row r="121" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D121" s="5">
         <f>'all_enter|所有按钮入口'!E121</f>
         <v>120</v>
@@ -7740,7 +7171,7 @@
         <v>通用转盘</v>
       </c>
     </row>
-    <row r="122" spans="4:5">
+    <row r="122" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D122" s="5">
         <f>'all_enter|所有按钮入口'!E122</f>
         <v>121</v>
@@ -7750,7 +7181,7 @@
         <v>发财礼包</v>
       </c>
     </row>
-    <row r="123" spans="4:5">
+    <row r="123" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D123" s="5">
         <f>'all_enter|所有按钮入口'!E123</f>
         <v>122</v>
@@ -7760,7 +7191,7 @@
         <v>赢一把就睡觉</v>
       </c>
     </row>
-    <row r="124" spans="4:5">
+    <row r="124" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D124" s="5">
         <f>'all_enter|所有按钮入口'!E124</f>
         <v>123</v>
@@ -7770,7 +7201,7 @@
         <v>疯狂砸金蛋</v>
       </c>
     </row>
-    <row r="125" spans="4:5">
+    <row r="125" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D125" s="5">
         <f>'all_enter|所有按钮入口'!E125</f>
         <v>124</v>
@@ -7780,7 +7211,7 @@
         <v>新年送茅台</v>
       </c>
     </row>
-    <row r="126" spans="4:5">
+    <row r="126" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D126" s="5">
         <f>'all_enter|所有按钮入口'!E126</f>
         <v>125</v>
@@ -7790,7 +7221,7 @@
         <v>红包鱼来袭提示</v>
       </c>
     </row>
-    <row r="127" spans="4:5">
+    <row r="127" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D127" s="5">
         <f>'all_enter|所有按钮入口'!E127</f>
         <v>126</v>
@@ -7800,7 +7231,7 @@
         <v>新人限时福利</v>
       </c>
     </row>
-    <row r="128" spans="4:5">
+    <row r="128" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D128" s="5">
         <f>'all_enter|所有按钮入口'!E128</f>
         <v>127</v>
@@ -7810,7 +7241,7 @@
         <v>小游戏托管</v>
       </c>
     </row>
-    <row r="129" spans="4:5">
+    <row r="129" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D129" s="5">
         <f>'all_enter|所有按钮入口'!E129</f>
         <v>128</v>
@@ -7820,7 +7251,7 @@
         <v>新人限时福利</v>
       </c>
     </row>
-    <row r="130" spans="4:5">
+    <row r="130" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D130" s="5">
         <f>'all_enter|所有按钮入口'!E130</f>
         <v>129</v>
@@ -7830,7 +7261,7 @@
         <v>水果消消乐爬塔</v>
       </c>
     </row>
-    <row r="131" spans="4:5">
+    <row r="131" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D131" s="5">
         <f>'all_enter|所有按钮入口'!E131</f>
         <v>130</v>
@@ -7840,7 +7271,7 @@
         <v>节日扩展活动（新玩家）</v>
       </c>
     </row>
-    <row r="132" spans="4:5">
+    <row r="132" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D132" s="5">
         <f>'all_enter|所有按钮入口'!E132</f>
         <v>131</v>
@@ -7850,7 +7281,7 @@
         <v>节日扩展活动（非新玩家）</v>
       </c>
     </row>
-    <row r="133" spans="4:5">
+    <row r="133" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D133" s="5">
         <f>'all_enter|所有按钮入口'!E133</f>
         <v>132</v>
@@ -7860,7 +7291,7 @@
         <v>欢乐礼包</v>
       </c>
     </row>
-    <row r="134" spans="4:5">
+    <row r="134" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D134" s="5">
         <f>'all_enter|所有按钮入口'!E134</f>
         <v>133</v>
@@ -7870,7 +7301,7 @@
         <v>龙王贡品</v>
       </c>
     </row>
-    <row r="135" spans="4:5">
+    <row r="135" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D135" s="5">
         <f>'all_enter|所有按钮入口'!E135</f>
         <v>134</v>
@@ -7880,7 +7311,7 @@
         <v>排行榜（冲金鸡大厅）</v>
       </c>
     </row>
-    <row r="136" spans="4:5">
+    <row r="136" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D136" s="5">
         <f>'all_enter|所有按钮入口'!E136</f>
         <v>135</v>
@@ -7890,7 +7321,7 @@
         <v>欢乐豪礼（新玩家）</v>
       </c>
     </row>
-    <row r="137" spans="4:5">
+    <row r="137" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D137" s="5">
         <f>'all_enter|所有按钮入口'!E137</f>
         <v>136</v>
@@ -7900,7 +7331,7 @@
         <v>欢乐豪礼（非新玩家）</v>
       </c>
     </row>
-    <row r="138" spans="4:5">
+    <row r="138" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D138" s="5">
         <f>'all_enter|所有按钮入口'!E138</f>
         <v>137</v>
@@ -7910,7 +7341,7 @@
         <v>秒杀礼包-捕鱼</v>
       </c>
     </row>
-    <row r="139" spans="4:5">
+    <row r="139" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D139" s="5">
         <f>'all_enter|所有按钮入口'!E139</f>
         <v>138</v>
@@ -7920,7 +7351,7 @@
         <v>秒杀礼包-cjj</v>
       </c>
     </row>
-    <row r="140" spans="4:5">
+    <row r="140" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D140" s="5">
         <f>'all_enter|所有按钮入口'!E140</f>
         <v>139</v>
@@ -7931,23 +7362,22 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="N36" sqref="N36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.25" style="17" customWidth="1"/>
     <col min="2" max="2" width="32.5" style="17" customWidth="1"/>
@@ -7957,7 +7387,7 @@
     <col min="6" max="16384" width="9" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" ht="35.25" customHeight="1" spans="1:3">
+    <row r="1" spans="1:3" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -7968,7 +7398,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="17">
         <v>1</v>
       </c>
@@ -7980,8 +7410,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/config_4.27/game_enter_btn_config.xlsx
+++ b/config_4.27/game_enter_btn_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" tabRatio="820" firstSheet="10" activeTab="18"/>
+    <workbookView windowWidth="28800" windowHeight="12540" tabRatio="820" firstSheet="14" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="mini_game_hall|小游戏大厅" sheetId="15" r:id="rId1"/>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="368">
   <si>
     <t>id|行号</t>
   </si>
@@ -212,7 +212,7 @@
     <t>|内容</t>
   </si>
   <si>
-    <t>3;116#2#8#122#61#137#9#117#134#138#</t>
+    <t>3;116#2#139#8#122#61#137#9#117#134#138#</t>
   </si>
   <si>
     <t>left</t>
@@ -319,7 +319,7 @@
     <t>|说明</t>
   </si>
   <si>
-    <t>111#112#53#79#36;113;89;136;131;#</t>
+    <t>111#112#53#79#36;113;89;131;#</t>
   </si>
   <si>
     <t>82#</t>
@@ -448,7 +448,7 @@
     <t>all</t>
   </si>
   <si>
-    <t>40#74#110#130#135#</t>
+    <t>40#74#110#130#139#</t>
   </si>
   <si>
     <t>58#30#88#42#118#87</t>
@@ -1319,10 +1319,10 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1335,13 +1335,6 @@
       <color rgb="FF0B0B0B"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1377,7 +1370,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1392,7 +1400,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1415,14 +1423,60 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1437,73 +1491,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1517,6 +1505,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1528,7 +1521,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1567,13 +1560,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1591,7 +1596,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1603,13 +1632,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1621,13 +1668,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1639,43 +1680,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1687,19 +1692,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1711,7 +1704,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1723,25 +1716,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1787,6 +1762,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
@@ -1809,22 +1795,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1847,23 +1828,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1875,10 +1850,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1887,137 +1862,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -2035,55 +2010,55 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2092,16 +2067,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="26">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="26">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2520,7 +2495,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="2"/>
@@ -2573,7 +2548,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I39" sqref="I39"/>
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="2"/>
@@ -2903,8 +2878,8 @@
   <sheetPr/>
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -3029,7 +3004,7 @@
   <sheetPr/>
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
@@ -3248,7 +3223,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="U40" sqref="U40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="2"/>
@@ -3508,7 +3483,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q40" sqref="Q40"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="2"/>
@@ -3595,14 +3570,14 @@
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F139"/>
+  <dimension ref="A1:F140"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B122" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B116" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F139" sqref="F139"/>
+      <selection pane="bottomRight" activeCell="F143" sqref="F143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -6066,6 +6041,24 @@
       </c>
       <c r="F139" t="s">
         <v>367</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6">
+      <c r="A140">
+        <v>139</v>
+      </c>
+      <c r="B140" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="C140">
+        <v>1</v>
+      </c>
+      <c r="D140" s="5"/>
+      <c r="E140">
+        <v>139</v>
+      </c>
+      <c r="F140" s="5" t="s">
+        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -6164,7 +6157,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="2"/>
@@ -6358,7 +6351,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4" outlineLevelCol="2"/>
@@ -6434,10 +6427,10 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J139"/>
+  <dimension ref="A1:J140"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -7925,6 +7918,16 @@
       <c r="E139" s="5" t="str">
         <f>'all_enter|所有按钮入口'!F139</f>
         <v>秒杀礼包-cjj</v>
+      </c>
+    </row>
+    <row r="140" spans="4:5">
+      <c r="D140" s="5">
+        <f>'all_enter|所有按钮入口'!E140</f>
+        <v>139</v>
+      </c>
+      <c r="E140" s="5" t="str">
+        <f>'all_enter|所有按钮入口'!F140</f>
+        <v>疯狂返利</v>
       </c>
     </row>
   </sheetData>
